--- a/figure/table.xlsx
+++ b/figure/table.xlsx
@@ -1424,7 +1424,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1871,6 +1871,7 @@
       <c r="M20" s="39"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1"/>
   <mergeCells count="11">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:K1"/>

--- a/figure/table.xlsx
+++ b/figure/table.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13420"/>
+    <workbookView windowWidth="28800" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Robust" sheetId="1" r:id="rId1"/>
     <sheet name="Score" sheetId="4" r:id="rId2"/>
+    <sheet name="Original" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>Accuracy (%)</t>
   </si>
@@ -63,6 +64,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Figure 1:  FGSM adversarial training used twice mix data. RFGSM adversarial training used pre-train model. Mixed training used mix data with 50K clean examples and three times of 2K adv examples by JPG compression. FGSM attack with</t>
     </r>
     <r>
@@ -201,6 +208,20 @@
   <si>
     <t>Figure 2. JPG means the examples will be compressed by JPG algorithm first.</t>
   </si>
+  <si>
+    <t>JPG Clean 
+Training</t>
+  </si>
+  <si>
+    <t>PNG Clean 
+Training</t>
+  </si>
+  <si>
+    <t>CIFAR-Original Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adv </t>
+  </si>
 </sst>
 </file>
 
@@ -209,13 +230,21 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
-    <font>
+  <fonts count="32">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -294,6 +323,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -303,7 +416,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,47 +439,16 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,72 +460,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
@@ -446,24 +481,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -476,151 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,6 +672,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -682,32 +737,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -731,11 +766,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,287 +854,245 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1048,58 +1101,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1423,452 +1473,444 @@
   <sheetPr/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="13.9910714285714" style="2" customWidth="1"/>
-    <col min="2" max="13" width="9.66964285714286" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.9910714285714" style="9" customWidth="1"/>
+    <col min="2" max="13" width="9.66964285714286" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="6"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:13">
-      <c r="A2" s="27"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:13">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:13">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="37">
         <v>96.88</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="38">
         <v>54.1</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="37">
         <v>92.64</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="38">
         <v>75.2</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="37">
         <v>78.36</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="45">
         <v>68.7</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="37">
         <v>80.12</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="45">
         <v>76.6</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="37">
         <v>67.14</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="45">
         <v>64</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="37">
         <v>95.87</v>
       </c>
-      <c r="M4" s="40">
+      <c r="M4" s="45">
         <v>100</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:13">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="39">
         <v>27.23</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="40">
         <v>15.5</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="39">
         <v>0.95</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="40">
         <v>0.5</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="39">
         <v>19.94</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="40">
         <v>18.3</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="39">
         <v>54.32</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="40">
         <v>44.8</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="39">
         <v>54.57</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="40">
         <v>50.1</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="39">
         <v>28.64</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="40">
         <v>24.9</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:13">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="39">
         <v>0.23</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
         <v>0.1</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="39">
         <v>0.01</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="40">
         <v>0</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="39">
         <v>10.52</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="40">
         <v>9.8</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="39">
         <v>0.44</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="40">
         <v>0.1</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="46">
         <v>42.05</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="38">
         <v>38.3</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="39">
         <v>1.04</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="40">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:13">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="39">
         <v>13.21</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="40">
         <v>9.2</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="39">
         <v>0.62</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="40">
         <v>0.3</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="39">
         <v>12.79</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="40">
         <v>13.1</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="39">
         <v>73.06</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="40">
         <v>62.5</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="47">
         <v>28.73</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="48">
         <v>24.4</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="39">
         <v>14.14</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="40">
         <v>12.1</v>
       </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:13">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="42">
         <v>53.85</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="43">
         <v>34.3</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="42">
         <v>39.3</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="43">
         <v>35.3</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="42">
         <v>22.97</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="43">
         <v>19.7</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="42">
         <v>55.16</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="43">
         <v>46.3</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="42">
         <v>67.25</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="43">
         <v>64.2</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="42">
         <v>49.3</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="43">
         <v>45.2</v>
       </c>
     </row>
     <row r="9" ht="65" customHeight="1" spans="1:14">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="24"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="30"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="38"/>
-    </row>
-    <row r="13" s="25" customFormat="1" spans="1:13">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-    </row>
-    <row r="14" s="25" customFormat="1" spans="1:13">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-    </row>
-    <row r="15" s="25" customFormat="1" spans="1:13">
-      <c r="A15" s="38"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-    </row>
-    <row r="16" s="25" customFormat="1" spans="1:13">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-    </row>
-    <row r="17" s="25" customFormat="1" spans="1:13">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-    </row>
-    <row r="18" s="25" customFormat="1" spans="1:13">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-    </row>
-    <row r="19" s="25" customFormat="1" spans="1:13">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-    </row>
-    <row r="20" s="25" customFormat="1" spans="1:13">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="A12" s="31"/>
+    </row>
+    <row r="13" s="31" customFormat="1" spans="2:13">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+    </row>
+    <row r="14" s="31" customFormat="1" spans="2:13">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+    </row>
+    <row r="15" s="31" customFormat="1" spans="2:13">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+    </row>
+    <row r="16" s="31" customFormat="1" spans="2:13">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+    </row>
+    <row r="17" s="31" customFormat="1" spans="2:13">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+    </row>
+    <row r="18" s="31" customFormat="1" spans="2:13">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" s="31" customFormat="1" spans="2:13">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+    </row>
+    <row r="20" s="31" customFormat="1" spans="2:13">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1"/>
@@ -1897,326 +1939,326 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="13.9910714285714" style="2" customWidth="1"/>
-    <col min="2" max="13" width="9.66964285714286" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.9910714285714" style="9" customWidth="1"/>
+    <col min="2" max="13" width="9.66964285714286" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="6"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" ht="24" customHeight="1" spans="1:13">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="9"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" ht="24" customHeight="1" spans="1:13">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="24" customHeight="1" spans="1:13">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="19">
         <v>0.53</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="20">
         <v>0.71</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="19">
         <v>0.76</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="20">
         <v>0.75</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="19">
         <v>0.73</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="20">
         <v>0.79</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="19">
         <v>0.79</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="20">
         <v>0.77</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="19">
         <v>0.66</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="20">
         <v>0.67</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="19">
         <v>0.92</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="20">
         <v>0.92</v>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:13">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="19">
         <v>0.45</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="20">
         <v>0.63</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="19">
         <v>0.73</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="20">
         <v>0.74</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="19">
         <v>0.7</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="20">
         <v>0.74</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="19">
         <v>0.73</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="20">
         <v>0.71</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="19">
         <v>0.64</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="20">
         <v>0.65</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="19">
         <v>0.9</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="20">
         <v>0.9</v>
       </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:13">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="19">
         <v>0.97</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="19">
         <v>0.93</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="19">
         <v>0.83</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="19">
         <v>0.81</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="19">
         <v>0.67</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="19">
         <v>0.96</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:13">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="22">
         <v>0.02</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="23">
         <v>0.32</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="22">
         <v>0.51</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="29">
         <v>0.64</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="22">
         <v>0.75</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="29">
         <v>0.79</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="22">
         <v>0.77</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="29">
         <v>0.74</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="22">
         <v>0.64</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="29">
         <v>0.65</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="22">
         <v>0.57</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="23">
         <v>0.71</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A8" s="18" t="s">
+    <row r="8" s="8" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="25">
         <v>58.6</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="25">
         <v>78.2</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="25">
         <v>73.8</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="25">
         <v>0.77</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="25">
         <v>65.4</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="19">
+      <c r="L8" s="25">
         <v>92</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" ht="31" customHeight="1" spans="1:14">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="24"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1"/>
@@ -2237,4 +2279,91 @@
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.3839285714286" customWidth="1"/>
+    <col min="2" max="5" width="10.8571428571429" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.14285714285714" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="25" customHeight="1" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1" spans="1:7">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6">
+        <v>94.85</v>
+      </c>
+      <c r="C3" s="6">
+        <v>85.4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>97.82</v>
+      </c>
+      <c r="E3" s="6">
+        <v>53.8</v>
+      </c>
+      <c r="F3" s="6">
+        <v>96.8</v>
+      </c>
+      <c r="G3" s="6">
+        <v>53.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>